--- a/Keras/Confusion_Matrices.xlsx
+++ b/Keras/Confusion_Matrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bburkman/Documents/Research/Research_Git_Repo/Keras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C9C1A536-FFBA-0E4B-8B92-6E17B3986439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{49EF1DC7-87A4-7E41-8FA0-1B195DD27D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940"/>
   </bookViews>
